--- a/outputs/fft-c__Bacteroidia.xlsx
+++ b/outputs/fft-c__Bacteroidia.xlsx
@@ -11,6 +11,9 @@
     <sheet name="g__C941_wrapper-LSVM-c" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="g__Ruminococcus_E_wrapper-LSVM" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="g__Ruminococcus_E_wrapper-LSV-c" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="g__Ruminococcus_E_wrapper-LDA-p" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="g__Prevotella_wrapper-LSVM" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="g__Prevotella_wrapper-LSVM-c" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4088,16 +4091,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.2161548674631837</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4115,16 +4118,16 @@
         <v>0.6917252311586789</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0.2702091363428655</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4142,16 +4145,16 @@
         <v>0.5443136764773912</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0.2961420982402712</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4169,16 +4172,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -4196,16 +4199,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -4223,16 +4226,16 @@
         <v>0.9872439858278128</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0.2431953972204415</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -4250,16 +4253,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -4277,16 +4280,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0.177937992072433</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -4304,16 +4307,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0.1803266362012036</v>
       </c>
       <c r="F10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -4331,16 +4334,16 @@
         <v>0.7130941873204818</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0.0650725791779535</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -4358,16 +4361,16 @@
         <v>0.626787551108855</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0.3959670270938486</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -4385,16 +4388,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0.1563935916590989</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -4412,16 +4415,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0.002840819913448533</v>
       </c>
       <c r="F14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -4439,16 +4442,16 @@
         <v>0.9711962038927081</v>
       </c>
       <c r="C15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0.3267558779024029</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -4466,16 +4469,16 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0.03382774788975673</v>
       </c>
       <c r="F16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -4493,16 +4496,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -4520,16 +4523,16 @@
         <v>0.9166499966917633</v>
       </c>
       <c r="C18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -4547,16 +4550,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -4574,16 +4577,16 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0.1194020342135939</v>
       </c>
       <c r="F20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -4601,16 +4604,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0.1773551031391981</v>
       </c>
       <c r="F21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4628,16 +4631,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4655,16 +4658,16 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4682,16 +4685,16 @@
         <v>0.6870927242086109</v>
       </c>
       <c r="C24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0.0644515227820831</v>
       </c>
       <c r="F24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4709,16 +4712,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0.6167393485382821</v>
       </c>
       <c r="F25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4736,16 +4739,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4763,16 +4766,16 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4790,16 +4793,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4817,16 +4820,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0.1210309944512237</v>
       </c>
       <c r="F29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4844,16 +4847,16 @@
         <v>0.5626818459804326</v>
       </c>
       <c r="C30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4871,16 +4874,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4895,19 +4898,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4925,16 +4928,16 @@
         <v>0.5408740888132277</v>
       </c>
       <c r="C33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4952,16 +4955,16 @@
         <v>0.8186247670427146</v>
       </c>
       <c r="C34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0.4331581318106875</v>
       </c>
       <c r="F34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -4979,16 +4982,16 @@
         <v>0.8630411678672001</v>
       </c>
       <c r="C35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0.3969498866490482</v>
       </c>
       <c r="F35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -5006,16 +5009,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -5033,16 +5036,16 @@
         <v>0.9267600326235015</v>
       </c>
       <c r="C37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -5060,16 +5063,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -5087,16 +5090,16 @@
         <v>0.4460611537540706</v>
       </c>
       <c r="C39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0.02840327472264248</v>
       </c>
       <c r="F39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -5114,16 +5117,16 @@
         <v>0.5439747922789903</v>
       </c>
       <c r="C40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0.5074254280921263</v>
       </c>
       <c r="F40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -5141,16 +5144,16 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0.1201985096838086</v>
       </c>
       <c r="F41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -5168,16 +5171,16 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0.2788670875242161</v>
       </c>
       <c r="F42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -5195,16 +5198,16 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -5222,16 +5225,16 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -5249,16 +5252,16 @@
         <v>0.8461634433596109</v>
       </c>
       <c r="C45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0.3455208951139809</v>
       </c>
       <c r="F45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -5276,16 +5279,16 @@
         <v>0.7879447005581126</v>
       </c>
       <c r="C46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -5303,16 +5306,16 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -5330,16 +5333,16 @@
         <v>0.6813310597458124</v>
       </c>
       <c r="C48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0.03965782921486627</v>
       </c>
       <c r="F48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -5357,16 +5360,16 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0.1300761046925526</v>
       </c>
       <c r="F49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -5384,16 +5387,16 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -5411,16 +5414,16 @@
         <v>0.6483035780049343</v>
       </c>
       <c r="C51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -5438,16 +5441,16 @@
         <v>0.7121992101429182</v>
       </c>
       <c r="C52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -5465,16 +5468,16 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0.02384685247882568</v>
       </c>
       <c r="F53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -5492,16 +5495,16 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -5519,16 +5522,16 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0.02318718843490097</v>
       </c>
       <c r="F55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -5546,16 +5549,16 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0.01327433426369906</v>
       </c>
       <c r="F56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -5573,16 +5576,16 @@
         <v>0.6622457379713871</v>
       </c>
       <c r="C57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0.2530477213507205</v>
       </c>
       <c r="F57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -5600,16 +5603,16 @@
         <v>0.7751596809602112</v>
       </c>
       <c r="C58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -5627,18 +5630,8595 @@
         <v>0.9600180402451937</v>
       </c>
       <c r="C59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0.40377682030294</v>
       </c>
       <c r="F59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>o__Chitinophagales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>o__Cytophagales</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>o__Sphingobacteriales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9957717037515135</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.117010231701573e-06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0001515872801822376</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00407491787295664</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.740851160007014e-07</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9849684584016024</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.999862417712649e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0009502685251676963</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01406119238742709</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.206162585399952e-08</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9857782922453969</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.000166664346676232</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0004048010411734247</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01364031506038571</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.927306367698119e-06</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9999380142101315</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.736558321787894e-08</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.540687754774693e-05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.651401418804987e-05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.753254941392683e-08</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.999963672531787</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.554063400914603e-05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.926346592772311e-06</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.78178284773875e-05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.265913368513571e-08</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9984074928944879</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.010030532276086e-07</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.934604049101457e-05</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001549549796423596</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.110265544361293e-06</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9999276127426832</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.29907806304023e-07</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.426597359510339e-06</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.052015310703834e-05</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.059904362942712e-08</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9959754580045572</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.104246341600219e-08</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.476105297724084e-05</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.003947362288445083</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.238761155691416e-05</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9998088209304514</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.959069361733693e-08</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.941418598242791e-06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0001887328347684678</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.852254881363206e-07</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9989496871741568</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0005469456328632422</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.578896367598657e-05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0004470474809874423</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.307483166946967e-07</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9759207589866296</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.071449903777531e-06</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0007533395034430389</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0233157881375641</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.041922459596483e-06</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9994022606265056</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.327121862673233e-08</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.346238582075319e-05</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0005824808252497974</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.722891205443989e-06</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.999959123687955</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.400170910359615e-06</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.769659257714605e-06</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.770348508038676e-05</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.996796704736235e-09</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9984728646417407</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.086938102325916e-08</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.952533233773247e-05</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001473689577825676</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.87957871480725e-06</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9998811236225777</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.267909259172138e-08</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.028235461661814e-06</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.000112856204338648</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.959258529355007e-06</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9999944011894305</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.445257548355057e-08</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.190218525634697e-06</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.387373751971357e-06</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.765716210975336e-09</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9996832727456592</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.762391119112934e-05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0001256181337563395</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0001230166975868114</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4.68511806470044e-07</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9998638942799744</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.764047095570416e-05</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.447362215473232e-05</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.371285239326624e-05</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.7877452210208e-07</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9985926421384375</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.373477252377252e-06</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0001414265509354284</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.001264557326987801</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.06386937952946e-10</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9981302398746447</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.014486658458437e-06</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.788422196583427e-05</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.001839554615866894</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.068008640998012e-07</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9996687283127091</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.839333060289072e-05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.50694018750334e-05</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.000286104915644787</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.704039167873813e-06</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9998497147111305</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.425582482872572e-07</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.212587522392685e-05</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0001174760274027319</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.408279945374968e-07</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9956943793098495</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.653996523548845e-05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0005258833661861756</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.003704549640884344</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.864771784427815e-05</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9982108656583606</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.545959366283552e-07</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.466546955320838e-05</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.001774314262587566</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.356187504817101e-11</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.999894402149624</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.924931751816851e-08</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.232454814455782e-06</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9.828128951183146e-05</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.06485673205478e-06</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9999262665390649</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.061673255499081e-06</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.353485754588262e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.612678867924502e-05</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.014145446962134e-08</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9999878165264544</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.185651824668617e-08</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.373780693016169e-07</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.180478941725433e-05</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.944954074361113e-08</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9998702280813427</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7.037956438358281e-06</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.039863461464212e-06</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0001206934000273331</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6.987301780800364e-10</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9979619389699905</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0003495029099640635</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0004388289500483062</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.001226273978350801</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.345519164638645e-05</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9998487997497729</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.00258152003089e-06</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0001081965629552145</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.983757639074991e-05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.635293611641348e-07</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.795076559325985</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01476261659898968</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1521185804725616</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.03755936777159181</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0004828758308718441</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9960103738273109</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.00298782763957392</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0001795358032277849</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0008167948398706678</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5.467890016632502e-06</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.983702877628198</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.512934117097974e-05</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9.86821392750063e-05</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0161830377986127</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.730927433267579e-07</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9925734715133656</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8.625823469014538e-08</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.00040927516921141</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.007016345281431105</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8.217777572096845e-07</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9999549684753507</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.37841047046414e-08</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.207712487478599e-05</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.288758319627478e-05</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.303247341731207e-08</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9995410173622541</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7.656645136540634e-06</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0001499568191329091</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0002828753177572351</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.849385571932238e-05</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9999909217509617</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.09313968990474e-07</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.844366285979822e-06</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.350059151510814e-06</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7.745096317806127e-07</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9471219649185346</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.05002172792011599</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0002224194878622962</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.002623901864106666</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9.985809380332027e-06</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9196582478546421</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.887550019017992e-06</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.00113962766304294</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.07919960021391106</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6.367183849003829e-07</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9998898988901181</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.252742067141244e-07</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.815253998815529e-06</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0001071390045327208</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.15771435186387e-08</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.992954867191178</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.466609953585997e-07</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.000149528759732127</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.006894580895836342</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.764922580870184e-07</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9998794660725692</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.623635056126756e-07</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.434355794870978e-05</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8.48622793976199e-05</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.065726579067431e-06</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.99991080615427</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.868929943646523e-05</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3.271570096836504e-05</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.495068619249336e-05</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.83815913279858e-06</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.988359752292584</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.439076776567113e-05</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7.499940124107257e-05</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.01151928221960623</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.157531880314572e-05</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9937110254097468</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.198907155814463e-06</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.003804052571939268</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.002469677034681102</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.204607647705946e-05</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.999963379465605</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.099216699503081e-06</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8.286082179168132e-06</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.622423522200483e-05</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.100029434354614e-08</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9987098777680428</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0004349335395329852</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7.514391292245522e-05</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0007766545538407756</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.390225660948969e-06</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9991134093444878</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8.747609227656095e-07</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.550388862140776e-05</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0008499665764956097</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.45429472393243e-07</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9999890242070569</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5.904597323440074e-08</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.935542139603999e-07</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9.972574653347545e-06</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4.506181025153464e-07</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9992930725350481</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0002108923443793424</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0001009247907776617</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0003926364377606473</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.473892034030895e-06</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9969585439812715</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.002935291953599184</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.414579478412096e-05</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9.021511506424145e-05</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.803155280979789e-06</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9997019205365224</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.866194522487872e-06</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.483290226042144e-06</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0002903651444734935</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3.648342556175592e-07</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.998784119643326</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6.771804261029566e-07</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0009637664776909463</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0002514123898963715</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.430866056722656e-08</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9994126510670468</v>
+      </c>
+      <c r="C55" t="n">
+        <v>9.276666849384288e-07</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0001100675480002471</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0004754632204036392</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8.904978645677245e-07</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9999534601840713</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5.930488535881038e-06</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8.275356786205198e-07</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.974812675534686e-05</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.366495866773196e-08</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9956674391448762</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0001159692096491667</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0001236674081316169</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.004088154057465829</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4.77017987714187e-06</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9991690267973965</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0001637579714410282</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.0002553510299260666</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0004118354180432286</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.878319308216067e-08</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9966338023496349</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7.941290403490591e-07</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.683334216695358e-05</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.003332326346182947</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.243832974891208e-06</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>o__Chitinophagales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>o__Cytophagales</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>o__Sphingobacteriales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.842018078245808</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.405077922895899</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3.207498909092931</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3.33041900934455</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-3.952963160502332</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.495867770649986</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.659134715684064</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-4.839757643910939</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2.175868135490826</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-6.144960476168555</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.951910728540005</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.097536262979495</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.494902415381645</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.305815179991753</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-2.090550232796423</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.479666055928717</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.125182875839328</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3.306282616056269</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-2.69038832006325</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-4.90402296361987</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.432042825895913</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.025275755720038</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2.840372060711919</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-2.560648493495313</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-3.448530876787296</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.659403170532633</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.412748134015</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-3.897821619807889</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.930902970694092</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-3.521533997430359</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.624452136548691</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.495068034797041</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-3.589406519918466</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.190115400193053</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-4.442246982323831</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.877153367049501</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.553733252033653</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-4.479967311051178</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-2.167817242824387</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-4.523096728001676</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.318511098868765</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.353791727730234</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-3.321990654323141</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-3.015918852045927</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4.035813462153585</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.220341889082766</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.545628664415295</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-4.38068464361616</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-2.184033430963249</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-4.331319961104402</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.058874135322537</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.163127348455662</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-3.248540913587204</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.761130787261861</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-4.665616702014473</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.952176946258525</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-2.312569560590439</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-2.37662681779089</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.829835571734456</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-2.883387548645291</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.350631596042255</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.821019196466604</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-4.663798358035499</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-2.38866080369365</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-5.940016161975288</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.043668965723017</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.789662144875645</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-3.362187457825954</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-2.552714118385507</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-4.074050419174266</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.530973993606874</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.763380561628737</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-4.608962857101224</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-2.155127707999656</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-4.48811680159754</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.12737330844211</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.910447900972223</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-3.663055733339522</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.63725310026213</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-4.462925185909954</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.117320941177101</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.659014575875409</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-3.665454532518504</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-2.819592534283599</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-6.113466152327312</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.41192082803504</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.601095623016439</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-2.037736144150588</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.772029048741767</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-2.971945223721487</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2.870566189615405</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.286180626529978</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-3.241502537386458</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2.091155639990768</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-3.745837528217002</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2.770573987534202</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.840848652160449</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-3.870994042281652</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2.12683893146598</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-3.270304931658901</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.00674104853177</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.419335386590194</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3.933959274573161</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.7726400274761349</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-3.688031244510497</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.431393740435038</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.123296993547776</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-2.602589896870746</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2.722863897734274</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-3.635695347321194</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.079208148250107</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.267522076738414</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-4.720056477180695</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.660200894114588</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-4.592507565551467</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.576243116819359</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.04875935868279</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-2.438114925377931</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.61708362477621</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-2.842245189810361</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3.825740192051245</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.996549543659349</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-3.071030593612388</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-3.157421643215096</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-2.646269899826637</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4.281729605521823</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.650427582456611</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-3.671197285230926</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-2.512138268970678</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-2.721323666802687</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.810668384749667</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.646002714783081</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-3.798654791811835</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.727760044615129</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-3.614458474818568</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3.470397885838756</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.224903190363038</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-2.884765238779883</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.806824700012193</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-4.227303036166164</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4.022630981989679</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.243259567219995</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-4.421596805959133</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-2.402024520555628</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.387481547206747</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.067839331091878</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.15412140973801</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.671144215688789</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-2.390813887807888</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.491112461029186</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3.925122745789451</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-2.153889927083702</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-3.736951667110507</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-2.28745915707921</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-6.039742688935243</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3.202308519755177</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.981782711467525</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-3.12579871422331</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-2.222177562432824</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-2.819398446555076</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4.046523673910273</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-2.625520242078324</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-5.349558272902715</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1.982381317821006</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-5.652930046698227</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5.319915685693349</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.776860923759565</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-4.197175942967385</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-3.119557445800837</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.615720783969921</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3.558230163507421</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-2.24988169297333</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-2.694235530189639</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-2.392842973104198</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-2.750675355571004</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4.132200307544123</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-2.560159230934739</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-3.735294884942027</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-2.631352042221934</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2.963227209660711</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5.2545324957503</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-2.313042372625553</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-4.619335909793619</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-3.078843736209778</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-6.728365545004186</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4.347275786634223</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-2.127126289011849</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-3.724125586589141</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-2.861756921356348</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-3.242167554698621</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2.748671418301349</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.186629140903301</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-3.669736794714733</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-2.084943776160211</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-3.523779208693169</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>4.446631972830984</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-2.462442335354325</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-3.40267866627366</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-2.560687279740326</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-3.367260363441206</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2.768320286170572</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-2.428864470421694</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-3.377839689734167</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-1.866231377749208</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-4.585535781499839</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3.505200978966874</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-2.538119088211021</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-3.072288864755296</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-2.366948008120738</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-2.509694350631329</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4.17934320446902</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-2.441806736396993</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-3.774671780868638</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-2.584725546005146</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-4.269729335674375</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3.699485818164981</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-1.223868330807069</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-3.668712423819554</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-2.769008462096046</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-3.536747335076884</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3.543491553249233</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-2.398191156451722</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-3.060550979629378</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-2.290343269551868</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-2.700695188500061</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4.817806934804095</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-2.694251970842566</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-4.363390202938225</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-2.490999094466415</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-4.788298175378214</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4.240266786022498</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-2.183093894673348</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-4.256287338880471</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-2.899205782079804</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-5.645969142809761</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1.619015042946966</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1.533929551227632</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-3.165476249288248</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1.08690331028115</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-3.496803146242925</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2.612130735476377</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1.675612281621021</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-3.451169798840348</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-1.906598861590285</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-3.68518866411036</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.53106243830363</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-2.441783492058287</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-3.832395604061294</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1.232072831602561</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-2.736557452032762</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2.986714360064432</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1.773030543526684</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-3.224211724479891</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-2.811548124516289</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-3.050632752074824</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3.66607865937828</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-2.170701479442254</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-3.932927790662148</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-3.006729101086717</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-2.467603207869213</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4.363570597080509</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-2.140823628457242</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-4.750415206188922</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-2.578932385414625</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-4.786968221576299</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3.73217732954652</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-2.089417772692235</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-4.335134000485565</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.808074199497642</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-4.92290787120282</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3.478054410426727</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1.574397067905595</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-4.601532802403272</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-2.234095192037195</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-5.100679732600305</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3.373758033447959</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-2.092092939011998</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-3.203278221020214</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-2.253407596397343</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-3.804672052692199</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1.596968702506233</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-1.637463322495506</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.08253989610158</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.937746426038755</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-3.16540242825298</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2.860248391344515</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-1.530003046536184</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-4.941638660903967</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1.648731364559487</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-3.774329623438983</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>4.266330748188555</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-2.049342168080233</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-4.234282567956956</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-2.756951357804446</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-3.146567462851404</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2.832495867472772</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-1.832383139330596</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-2.043029334007724</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-2.777092154484977</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-3.44067428595507</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3.727544671926217</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-2.241796654113159</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-4.118064598633476</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-2.146165129078057</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-4.205552103070972</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3.013603085200092</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1.790080745511488</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-3.244670503113604</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-2.006539219718154</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-3.046452991193453</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3.624008398344536</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.83762342341197</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-3.984380473012355</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-2.780640123163008</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-3.791247541231217</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3.245529294801551</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.927729411211296</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-3.794947438411159</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-2.194231853818647</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-3.726166826510874</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4.073275282481497</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.367351764577504</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-4.09819700591085</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-3.513292110206255</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-5.873658089460603</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3.924585265871438</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-1.419822086473038</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-4.20256977506627</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-3.442032464589244</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-5.260969431307869</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3.590253092575178</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1.468269774123863</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-4.117007994552615</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-1.949116856405814</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-6.516717219911627</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3.044328532319793</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-2.328009389684133</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-2.652685001704936</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-1.959295494070274</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-3.141137783342926</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3.190481449301703</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-2.451604767948303</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-2.821629108053213</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-2.37929818362811</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-3.651152762424504</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4.082233834333963</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-2.345946794449638</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-4.878640015951032</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-2.315417294316598</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-3.517423033045102</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4.141382424863677</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-1.380789111972232</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-3.94269412328818</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-3.701732961243263</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-5.207430435091956</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.642810171331347</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.429202854187331</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-2.16212273535348</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.399940261903339</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-2.433187171091837</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2.871340029975611</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-1.685211120670644</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-2.423865235901951</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-2.199890271780991</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-2.291493618821253</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3.519219314523619</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1.784616812413235</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-4.063394756743982</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-2.136412767275713</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-4.115286829165836</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3.996535689986658</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-1.913854724556725</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-3.939681444705832</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-2.437178868168242</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-4.348047222878826</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3.737049921651133</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-1.5327815321985</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-3.932427422322832</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-2.442513098195245</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-4.560625498695599</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4.536881234553273</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-1.495805868209611</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-4.394437481492503</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-3.708829198515787</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-6.863682330481491</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3.864832850603867</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-1.788216698472969</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-3.208427925394909</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-3.157821959048553</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-3.017477700843034</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2.932024610416072</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-2.465179941143049</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-3.447820192459718</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-1.861029187616848</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-5.319535610607513</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3.090877173345447</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.930082645877513</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-2.657085232551214</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-2.678109832310014</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-2.283738145259255</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4.784738252914254</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-2.873410227778396</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-5.226152660780465</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-2.468654252739506</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-6.476132098468861</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>3.37156332808542</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.975705352527039</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-4.617106996356532</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-1.345113690167174</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-4.920702486300118</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3.276250831529957</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-2.383932265823604</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-3.147625114414649</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-2.121077822464065</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-3.889392082665206</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>3.184309646913611</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-1.613364901378612</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-3.901223422853005</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-2.073550739115421</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-3.606222598150241</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>3.705305571892088</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.539724769478001</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-2.861776552848828</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-2.767970212577627</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-4.944382914852489</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>4.727704647958616</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-2.452025315705198</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-3.685049514569688</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-3.174683563278661</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-5.904216276211931</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2.217797721660443</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-1.32920230692738</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-2.867050134532456</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-1.800072012916679</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-2.426403323732711</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2.418628245062393</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1.818836290686416</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.652034182577123</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-1.816484123351889</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-3.631864289488272</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3.616400183640184</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-2.247089312045078</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-2.859090894856838</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-1.975805017971281</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-4.619654148476486</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2.038422606945439</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-2.008378128390799</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-2.775261459065197</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-2.225954569813119</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-4.139511255358822</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2.765428050050208</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-2.040072349177362</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-2.08568494353161</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-2.388729349654493</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-2.355582838122873</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>3.280634434288718</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-1.433236347115406</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-3.91402874278917</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-2.772559182552293</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-4.688126560136057</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>4.401584626019691</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-2.043714982120195</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-3.301491609066349</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-3.43880713306436</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-4.224886560465995</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>4.603146410740549</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-2.174442763265075</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-4.078098726356027</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-2.9379352203645</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-4.307123916245343</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3.106053859413199</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.853814341757205</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-3.116532127810671</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-2.68586514120862</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-3.135028712710373</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3.21387913712793</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-1.831871824004264</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-3.7242728827235</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1.859993605256284</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-4.323504565760596</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>3.768555732760932</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-2.908229584474282</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-4.348173089126368</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-2.637843615567974</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-5.890009881288827</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>4.344944940661223</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-2.089728261284806</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-3.748695169913311</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-3.536485861694221</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-5.019502404219709</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3.168212597554334</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-2.212267409710389</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-3.111215383091229</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-2.15059887482442</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-2.975655343105807</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>4.661591242373287</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-2.170985060632031</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-4.485617008310972</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-2.523995086635876</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-5.268374572714107</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1.054323832817616</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-1.059952166276503</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-2.582996545166983</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-1.802135633436471</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-1.895838540154158</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>3.531391316051894</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-2.159788043468407</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-2.858233577770459</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-2.591085980032062</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-3.710626310111417</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3.743855968667856</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-2.060181430197678</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-3.003751180319115</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-2.28870158672651</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-4.366114430779285</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2.285797703536504</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-2.278464973146685</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-2.766283954467377</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-1.85886753560554</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-4.941322090950512</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3.42609658441425</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-2.056067146545063</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-3.911874272198457</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-2.2220824475319</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-1.643818003600837</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3.147920345676891</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-1.809287616705212</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-3.288919863770124</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-1.734246548118345</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-4.961343346410826</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2.052578929355795</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-2.019214972262798</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-2.454721419108054</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-1.430941686818078</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-3.660492869458003</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4.672739047659399</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-2.20313389391032</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-4.180807171357862</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-2.637359398718142</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-3.783083539758552</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1.273024024277107</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-1.556548268627311</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-2.471208640743675</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-1.514268488212433</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-1.065574901378142</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>3.707620643691339</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-2.701438688585262</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-3.178564024664019</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-2.065432838177343</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-4.619210525178919</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3.138255260439757</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-2.219548541867872</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-3.554237657729276</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-2.136578912273694</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-2.686142812551885</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>3.738374398957409</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-2.292765694131253</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-3.020242683909432</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-2.61127874846537</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-4.665790808862889</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>4.021516567698934</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-1.425055975544938</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-4.105840689796598</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-3.08507573685668</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-3.528403893998191</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>4.08741175510536</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-1.897162443629171</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-4.325266618026316</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-2.648397551900573</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-4.268543043889614</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1.669958343692109</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-1.86928661235753</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-2.661514967547172</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-2.042938655399399</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-3.250656076636714</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3.697627479981808</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-2.592656304495469</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-3.193069682836733</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-2.459400981830943</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-3.365938153822558</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2.616867720062991</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-1.858587286090788</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-3.898344731138732</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-1.660747485216657</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-3.133663036089164</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3.78417968591367</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-1.97440029454369</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-4.421789587061161</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-2.2554382376958</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-3.286293605745508</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>3.324360343253625</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-1.860758266971683</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-3.691159043907475</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-2.382170318401495</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-3.323115746561982</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>3.635278293747848</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-1.819804690434089</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-3.323792357199733</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-3.379630599301298</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-6.185103676492917</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>3.360823267708238</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-2.271459969465119</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-3.284462667444869</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-2.062775696501509</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-4.834225697421667</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>3.647525677943638</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-2.071148296102344</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-3.694296268191641</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-2.779608045027958</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-3.669874471878114</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2.444508547577175</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-1.657880860748014</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-3.878509176981899</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-1.835969797553317</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-5.368900093587773</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2.027249578850723</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-1.990271470925453</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-2.643934467601879</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-1.591518475527647</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-2.519013923394499</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>3.218814364817585</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-2.156795724258429</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-3.342945656877485</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-2.547050339656848</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-4.320615749151947</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2.338810344501728</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-1.1018760002907</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-2.490124262966472</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-2.375603208696719</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-2.051062322388777</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2.772062236160733</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-1.724851877099676</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-2.538938053029154</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-2.495480212609799</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-4.141990932577905</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>o__Chitinophagales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>o__Cytophagales</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>o__Sphingobacteriales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1136799862619325</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G128" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>

--- a/outputs/fft-c__Bacteroidia.xlsx
+++ b/outputs/fft-c__Bacteroidia.xlsx
@@ -14,6 +14,8 @@
     <sheet name="g__Ruminococcus_E_wrapper-LDA-p" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="g__Prevotella_wrapper-LSVM" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="g__Prevotella_wrapper-LSVM-c" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="f__Lachnospiracea_wrapper-LSVM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="f__Lachnospiracea_wrapper-LSV-c" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10805,16 +10807,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -10832,16 +10834,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -10859,16 +10861,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -10886,16 +10888,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -10913,16 +10915,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -10940,16 +10942,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -10967,16 +10969,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -10994,16 +10996,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -11021,16 +11023,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -11048,16 +11050,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -11075,16 +11077,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -11102,16 +11104,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -11129,16 +11131,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -11156,16 +11158,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -11183,16 +11185,16 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -11210,16 +11212,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -11237,16 +11239,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -11264,16 +11266,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -11291,16 +11293,16 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -11318,16 +11320,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -11345,16 +11347,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0.1136799862619325</v>
       </c>
       <c r="F22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -11372,16 +11374,16 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -11399,16 +11401,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -11426,16 +11428,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -11453,16 +11455,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -11480,16 +11482,16 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -11507,16 +11509,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -11534,16 +11536,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -11561,16 +11563,16 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -11588,16 +11590,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -11615,16 +11617,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -11642,16 +11644,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -11669,16 +11671,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -11696,16 +11698,16 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -11723,16 +11725,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -11750,16 +11752,16 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -11777,16 +11779,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -11804,16 +11806,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -11831,16 +11833,16 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -11858,16 +11860,16 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -11885,16 +11887,16 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -11912,16 +11914,16 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -11939,16 +11941,16 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -11966,16 +11968,16 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -11993,16 +11995,16 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -12020,16 +12022,16 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -12047,16 +12049,16 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -12074,16 +12076,16 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -12101,16 +12103,16 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -12128,16 +12130,16 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -12155,16 +12157,16 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -12182,16 +12184,16 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -12209,16 +12211,16 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -12236,16 +12238,16 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -12263,16 +12265,16 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -12290,16 +12292,16 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -12317,16 +12319,16 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -12344,16 +12346,16 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -12371,16 +12373,16 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -12398,16 +12400,16 @@
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -12425,16 +12427,16 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -12452,16 +12454,16 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -12479,16 +12481,16 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -12506,16 +12508,16 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -12533,16 +12535,16 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -12560,16 +12562,16 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -12587,16 +12589,16 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -12614,16 +12616,16 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -12641,16 +12643,16 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -12668,16 +12670,16 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -12695,16 +12697,16 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -12722,16 +12724,16 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -12749,16 +12751,16 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -12776,16 +12778,16 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -12803,16 +12805,16 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -12830,16 +12832,16 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -12857,16 +12859,16 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -12884,16 +12886,16 @@
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -12911,16 +12913,16 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -12938,16 +12940,16 @@
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -12965,16 +12967,16 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -12992,16 +12994,16 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -13019,16 +13021,16 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -13046,16 +13048,16 @@
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -13073,16 +13075,16 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -13100,16 +13102,16 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -13127,16 +13129,16 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -13154,16 +13156,16 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -13181,16 +13183,16 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -13208,16 +13210,16 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -13235,16 +13237,16 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -13262,16 +13264,16 @@
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -13289,16 +13291,16 @@
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -13316,16 +13318,16 @@
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -13343,16 +13345,16 @@
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -13370,16 +13372,16 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -13397,16 +13399,16 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -13424,16 +13426,16 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -13451,16 +13453,16 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -13478,16 +13480,16 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -13505,16 +13507,16 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -13532,16 +13534,16 @@
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -13559,16 +13561,16 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -13586,16 +13588,16 @@
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -13613,16 +13615,16 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -13640,16 +13642,16 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -13667,16 +13669,16 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -13694,16 +13696,16 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -13721,16 +13723,16 @@
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -13748,16 +13750,16 @@
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -13775,16 +13777,16 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -13802,16 +13804,16 @@
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -13829,16 +13831,16 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -13856,16 +13858,16 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -13883,16 +13885,16 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -13910,16 +13912,16 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -13937,16 +13939,16 @@
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -13964,16 +13966,16 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -13991,16 +13993,16 @@
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -14018,16 +14020,16 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -14045,16 +14047,16 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -14072,16 +14074,16 @@
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -14099,16 +14101,16 @@
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -14126,16 +14128,16 @@
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -14153,16 +14155,16 @@
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -14180,16 +14182,16 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -14207,18 +14209,7194 @@
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>o__Chitinophagales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>o__Cytophagales</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>o__Sphingobacteriales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG427</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.703138014685577</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.333253680114828</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.5813696441751465</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.3169884097820264</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-3.278594989947462</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG306</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.209396173859594</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.628920468079369</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.209288009174766</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.425358289218834</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.435164804666375</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG702</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2578207768726095</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6323289763249689</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.587863843930711</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.989002280884439</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-2.895878338979234</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG263</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.066045716120177</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.719693750472031</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2.875360931670672</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.2304006872136659</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5.387374917717922</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hRUG861</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3314461062369238</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.794678623172277</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.89701664127467</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.7673372924527595</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-2.655124342744291</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG402</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7480295078645081</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.929673969863905</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.846618902420753</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.1813115051033334</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-3.545594317993457</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG565</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1919577203646202</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.757496871817158</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.98094787623738</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.129668938773494</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1045225341606356</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG609</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.6766862819500281</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.28091648671181</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.967024705639041</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1842717041524056</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-3.615976140043871</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG495</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5988374922849704</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.166602546554812</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.345136215570667</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.844464252323738</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.210007696057374</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG381</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8226509075287598</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.528323797740338</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.897962506996926</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.403716359729342</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.658296482052982</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG096</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.151075083378879</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.351796824757089</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-2.190594228232267</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.603262286355915</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-3.781038133787099</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG557</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.468998849422479</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.648156441330871</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-2.716225239259925</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.635013871053769</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-2.517103751865987</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG305</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2772973353840877</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.94416564863031</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-3.04466857200787</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.169054044822288</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-3.161053186228656</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG185</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.451022148774272</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.607511722991263</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-2.827482159995323</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.983317969548069</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-7.342580895791634</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG226</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5566596970116817</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.937137117116409</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.862565758075038</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.106668630128123</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-2.877420186898699</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG356</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8610097858981249</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.955604569479443</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.287915508692612</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.066713179566409</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-3.349598626485379</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG223</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6196387696355874</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.669678320155894</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1.46249534773516</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1.89517539167474</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-3.600460429511067</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG289</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7518043322175729</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.756950920337492</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.237849192205179</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.64013592905215</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.547258869722888</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG283</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.800818932523795</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.253764720458264</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-2.447256994546554</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1.947225557651467</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-4.060155911406694</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG735</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.266156349185461</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.950318274791803</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2.519468369600354</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.355277085196862</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-4.746889521466756</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG028</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.999701070295898</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.278701295223522</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-2.281455415539911</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.819727985991824</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.528154555686481</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG170</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.03381815042755609</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.54587359756584</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.9703019215355211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.179857852575427</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-3.846747562496189</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG044</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.00691630204757</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.167710605718081</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-2.807143772129464</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.316094551317834</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-3.349969261249769</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG154</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.804456640076811</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.002173337242767</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.166150908030618</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.8570715168803085</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.6923935261792269</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>o__Sphingobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG147</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.421368006393569</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.308635770302002</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-2.630519831067348</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.7925637157865222</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-1.337623559271744</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG057</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.331481953405527</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.411297667989869</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-2.507310090595014</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.8774693299227037</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-5.256449958674849</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG607</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.08980283045402848</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.697191584919245</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-1.368193264419413</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.241466805784495</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-4.979070169632722</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG117</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.1019751651138544</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.428473835882592</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.449122780470443</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.8838220504057814</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-2.429172244009959</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG214</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4508605516263844</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.661093123599119</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1.007076105358033</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-2.010965656775902</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-2.947803624324868</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG688</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4672209387831474</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.744400863688948</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-2.013133988336178</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.056684217702833</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.459466011476343</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG285</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4569563864076183</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-2.250278472609454</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1.600051526615126</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.582800911437356</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-2.891071988543701</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG015</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.529737865782671</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-3.767617158416066</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-2.170298887144059</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.2782291673014077</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-10.16929267318507</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG775</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9089946568615006</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.791926608044859</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-2.437048757999052</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1.70604251254086</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.607694213884102</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG578</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1780056656651176</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.409629602299582</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1.622193462483931</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-1.46258658463647</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.358846883222117</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>hRUG895</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.590890040124487</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.357581887390757</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-1.493908035250245</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-1.317730970832566</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-1.845391481576959</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG091</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7308195174451015</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.8255711015676861</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-2.349220418775849</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-1.082273623815347</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-5.68963446361927</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG009</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.109699362915337</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1.350852199917185</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-2.192585134563754</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-1.249554105411057</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-6.372156517561838</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG596</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.342383939104068</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.498749791428604</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.7250696434055597</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-1.303429168559977</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-2.223057907147776</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG595</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.478658307313101</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.545021690646524</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-1.490849871547415</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-1.532308994401636</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-1.955211739672007</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG829</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9745400843670711</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.098792306375723</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1.269564625519868</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-2.346396116880573</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.7653228229741679</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>hRUG896</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5706507184942664</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1.990330989885256</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-1.4490470421037</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-1.067243827743942</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-2.813687690391535</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>hRUG892</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.2829191467469447</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-2.21412345832353</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-1.645915988763272</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.46233862717394</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-2.20593728320307</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG531</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.029884747493078</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1.743013916358255</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-1.575798942888208</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-1.060873370733643</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-2.849536411808376</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>hRUG852</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.200114655451142</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-1.120256811213314</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-2.405594450677338</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.7715879247641924</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-2.878891989931455</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG635</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1.173410212431433</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1.960518420239937</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1.599634723424598</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.298118075506288</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-3.408225551529027</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG764</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6407946143975238</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1.4602678729712</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-2.13086022667449</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-1.191044114911598</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.5570972615028931</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG145</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1.357594747589991</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-1.994837072737863</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-1.576600369681375</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-1.006381868787061</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-7.433042352969971</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG724</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1.003295623058217</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1.221411715653193</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-2.236314946968558</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-2.082402771800247</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-4.568097750060754</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG613</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.012882974304163</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-2.61425289778036</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-2.221991451249788</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.2359771078578556</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-4.492149065611395</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>hRUG872</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.112904496572722</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-2.320259495054787</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-3.145036879129762</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.8109993594296159</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-4.052640703293738</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG300</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1.681286777737104</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-2.941941237697614</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-2.556250081780546</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.7259321982279443</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-5.515759152456011</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG796</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.703330016937902</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-1.543408725335636</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-2.00163249975983</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.711274672108799</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-3.364586354574503</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG811</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.35357566768043</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-2.125874597776835</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-2.026147065531421</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-1.396351480608301</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-4.933893002462506</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG809</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.026152445204205</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-1.944724187070051</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1.824468678046218</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-2.633383793260558</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-4.286357143547169</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG268</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.7979167953070199</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1.836371488751319</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-2.370354388327269</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1.833943642190681</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-2.965286211201285</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG336</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-1.470742056433383</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.8560140547183253</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.3938442626158069</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.4834063525606893</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-3.084449247996296</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>o__Cytophagales</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG115</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.5777765587606394</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-1.495620913769102</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.467613568713062</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-2.114341245503459</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-3.773081321522605</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>hRUG871</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.635127523590806</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-2.34200401798384</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-2.436174694852719</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1.288997933542883</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-2.399895653784481</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG252</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.3340676220296315</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1.786827603134345</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-1.649838685847246</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.6273216757438982</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-3.572263465754058</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG830</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9135221455228244</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-1.961130863849829</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-1.863028459042645</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-0.190427721472473</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-4.583386657707568</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG656</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1.239448198832396</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-2.161222859535479</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.41820054400225</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.563476536799782</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-1.402307455605388</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG822</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.7351671835616596</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1.476622173210138</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-2.054762284936372</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1.077872771668383</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-2.555913545543769</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG819</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1804626539493073</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.553211525895868</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-1.729343191888799</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-1.183663947913201</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-3.002564362567696</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RUG411</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.7158138430068089</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.988868272868113</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-1.991346233186233</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.2076790601546987</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-2.124078887510172</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG006</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.6502580147668013</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.986758141135791</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-1.707437367813902</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.7518518356981485</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-1.414146629880688</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG694</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.840639186889359</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-1.649108084426709</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-1.784815652690837</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-1.371005596910311</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-2.373811962849245</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG389</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.0196288028921503</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1.767925511388866</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-1.608491647041699</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-1.022864092658595</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-2.519241119197294</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG671</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1.359844724802052</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-2.784910132926645</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-1.870993796285268</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-2.185486843853769</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-3.973607717283269</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG824</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1.134758276997547</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-2.008118361667144</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-1.142613590430894</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-1.995595783211764</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-2.551489960897945</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG094</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8659517341689951</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.911219733136253</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-2.197683977324429</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.8355110794840275</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-5.334539367866559</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG128</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.2339705857895998</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-2.881846978314229</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-2.448859358655182</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.4382993836648679</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-3.414485681423439</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RUG191</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.356959305108093</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.159654640894784</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-2.221224673837881</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-2.55270046900516</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-7.484213363795138</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG222</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2.064119816973055</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-2.837214305028871</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-2.304673287654026</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-1.517372249573379</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-4.827187098952172</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG554</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1.169009244694183</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1.670968031543411</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-2.179493028034983</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.8957014746083318</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-2.14178738697538</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG611</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8728009791632674</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-1.414450705866968</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-2.181166949395505</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.695143630760237</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-3.13229667699359</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG512</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.4462967508597717</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-2.271322470396164</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-1.921486884419177</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.8696970640161832</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-1.796698024948426</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>hRUG868</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1.340805465717746</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-2.062579590677733</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-2.712215244740786</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.8121889145699439</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-5.618539295820019</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG850</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8257199533837678</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-1.765943724257906</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-1.184398356082384</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-1.470694182287654</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-1.946297236261002</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG588</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.5797388344402006</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-1.041507460711567</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.440210674221775</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-1.275542239263983</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-1.010096864199442</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>o__Cytophagales</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>hRUG877</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.3236186863286483</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.33882515676556</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-1.597678130555409</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-1.372791157359196</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.9788943284708609</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>RUG561</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8678265429935181</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.783317880037212</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-2.148308129092962</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-1.79441172779089</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-1.140388638331655</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>hRUG856</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.006554661441419918</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-2.029345817869665</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-2.308379597652367</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-0.2178218915434471</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-1.606949054503333</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG484</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1.228067032522431</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-2.655577713021897</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-1.906244430976149</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-1.190760889650753</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-2.230158626514484</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>hRUG869</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.8452345231713911</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-1.627074968706068</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-1.828428069381427</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-1.022992727219831</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-2.803069563957142</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>hRUG859</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.4310222479675858</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-0.8095808854559483</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-1.459359394183</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-1.761280762515477</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-2.155905308786044</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG681</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.2358251452961415</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-2.127257156960367</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-2.116342197298765</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-0.9830253621602025</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-1.646181153138204</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG847</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2.080862366287664</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-2.25456167149811</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-3.052429778572174</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-1.54623152835431</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-2.400373852305037</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG743</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.487594192909238</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0.8181778125260337</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-2.026247489283017</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.8103321885589645</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-3.490490782286556</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG655</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1.871561490956112</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-2.044930623400021</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1.990325930396594</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-1.245338704635807</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-3.910434834480286</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>hRUG851</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1.562245351443097</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-2.739736454040195</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-3.781382813068539</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0.1712943171127042</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-3.982725084341137</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG710</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.01662300564323005</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-1.540533626838579</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-2.075218534527307</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.4307698957176644</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-3.381752671852291</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG433</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2.500057248533486</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-2.149992668467355</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-2.393471964621462</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-2.348476470043177</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-4.964095884166906</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG687</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.454082391747037</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.7976698934726797</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.7422768784646805</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1.433463761064474</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.4555608097509694</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>hRUG904</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9357482942781186</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-1.904870935288448</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-1.86580162098504</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-1.957922945387905</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-1.083381887526964</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG458</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1.034628086785885</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.806311512772106</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-1.204324264745617</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-1.292274140936008</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-1.424172595420413</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG508</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.6616514566650757</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-1.629616369103821</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.7226233666890678</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.3875869069663223</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-1.313223772125414</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG816</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-2.130325202203185</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.001551548694036398</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-2.015185504397192</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.2017178626404874</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-4.364709050373897</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG297</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1.50204971782308</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-2.41644404841419</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-2.852696424173079</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.5502739163742612</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-5.09103878788802</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>hRUG884</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.1076866799445368</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-1.702901621548293</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-1.739774745668137</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.5077582480163387</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-1.587647223278683</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG709</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.3981839171318096</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-2.414832136696354</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-3.081821742830456</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.5231988195991757</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-1.678805143235702</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG335</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.336466574826935</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-1.608562787291795</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-1.662988015310134</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.2831759211205183</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-4.4449268044662</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG534</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.3989870774130324</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-2.636081058805702</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-1.25573729788099</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0.2364938554097005</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-2.397933534847781</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG692</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1.236884351769973</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-1.81270054186951</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-2.923394381036686</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.3028463735517883</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-3.970030959949369</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG231</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.02354773412052369</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-1.574840523134484</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-2.580667461253682</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.7758970743440854</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-2.09650373309137</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG683</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.8225792615648269</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-1.902160052826657</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-1.424794163008617</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-1.423573783686772</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-1.322042690397484</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG646</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7227484251707561</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-2.098631611444967</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-2.083279602404907</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.1976201408572877</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-4.685514956324575</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG035</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.9907751624626961</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-1.802343284142216</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-2.587891507084632</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.7419265245352542</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-5.717821590837587</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG781</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.1944768842146876</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-3.442785897174159</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-2.567551772183663</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.9171458080833159</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-5.649174822898951</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>RUG308</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.909377404004807</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-2.403431054578463</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-2.264287246574665</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0.7301035488687597</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-3.045006366256767</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG617</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1.81193832320407</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-1.75335611534506</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-2.349520219549259</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-1.801037619795298</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-2.459119847011561</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>hRUG899</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.8256070741331902</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-1.090825091954202</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-2.097706136325791</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-1.310912049490446</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-2.041706931805727</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG066</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.4284059515902282</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-1.88996778074617</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-3.155272358693818</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.06826930052277791</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-8.190317271819609</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG842</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.801835779207533</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-1.870448534861945</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-1.813499677859188</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-1.097326511011925</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.9457345612913066</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG151</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2.137298917005834</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-2.757821987947978</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-2.570077565075794</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-0.1833734191289758</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-7.158848486062932</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG055</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1.838093417845955</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-1.751430851505803</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-2.501149997282626</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-2.206924794196818</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-4.551839022658667</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>hRUG886</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.4839734432024456</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-1.791556688128921</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-1.687317642537611</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0.5983338397849036</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-3.182435453485534</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG409</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.04566384555531511</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-1.767787403966491</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-1.541117349000853</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.8752532549553937</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-2.039650135853618</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>RUG375</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.909778790036524</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-2.342248494120508</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-2.203161263121893</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-1.066779140384812</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-2.453972373753588</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG638</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9688401392226589</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-2.440948488012617</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-1.860524085885128</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-0.9516189768452199</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-1.996902359335624</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG211</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9894083180909337</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-2.708954690983574</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-2.401891024405251</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.7001332102252322</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-4.082633421297056</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG274</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1.355945028212644</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-2.39570911075121</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-1.743572718082095</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.3645743411451199</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-4.916486094092733</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG477</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.2572575436187097</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-0.6402781542408146</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-1.453331829456637</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-0.7533983330157519</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-1.212079596564764</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>hRUG875</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7117666298169694</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-1.592310732553862</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-2.060309885136788</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-1.062976498656831</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-3.466194655696024</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG391</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.5492970618874811</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-1.518124472528206</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-2.089857492476164</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-1.098431612569539</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-2.147179171895126</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>hRUG870</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1.228279241737476</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-2.107309182392743</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-2.058987885987471</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-0.9238991655115718</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-3.043325404194409</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>hRUG853</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.06181492342534023</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-1.807053517279116</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-3.17653500631461</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.264840730971555</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-1.843151614354936</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG441</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1.3120537297998</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-1.396153760393218</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-1.75068423063718</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-2.211801645869071</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-3.391691825973747</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>RUG304</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.6733356772147983</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-1.870590283926464</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-1.637846880026015</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-1.347913800139906</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-1.424849993681533</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>RUG254</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1.484688494460113</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-2.868566626356614</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-3.671749196057521</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-0.7346011761893985</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-2.243141965679024</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>RUG227</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.1220764142587747</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-1.60680181495691</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-1.336372821936201</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-1.304036021263781</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-2.423835032550229</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>RUG584</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2.451382633102856</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-3.132957076528045</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-2.793690520190285</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-1.13985537573184</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-2.545933503277907</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>o__Chitinophagales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>o__Cytophagales</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>o__Sphingobacteriales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG427</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2093151779124268</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3415057951089868</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG306</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG702</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6289103884363048</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1838355118375156</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG263</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.384799656393167</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hRUG861</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6657230531184619</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1163313537736202</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG402</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.874014753932254</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4093442474483333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG565</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5959788601823102</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4477387329196822</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG609</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1616568590249859</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5921358520762028</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG495</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7994187461424852</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG381</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9113254537643799</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG096</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG557</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG305</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6386486676920439</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG185</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG226</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7783298485058409</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG356</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9305048929490625</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG223</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8098193848177937</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG289</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8759021661087865</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG283</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG735</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG028</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG170</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.516909075213778</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01484903923223946</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG044</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG154</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.07146424155984576</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1538032369103866</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>o__Sphingobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG147</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1037181421067389</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG057</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.06126533503864817</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG607</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5449014152270142</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG117</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4490124174430728</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.05808897479710928</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG214</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7254302758131922</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG688</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7336104693915737</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG285</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7284781932038091</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.208599544281322</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG015</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3608854163492962</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG775</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9544973284307503</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG578</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5890028328325587</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>hRUG895</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.2045549799377565</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG091</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8654097587225508</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.08721444921615695</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG009</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG596</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.328808030447966</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1374651782972202</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG595</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.7393291536565505</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG829</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9872700421835355</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1173385885129161</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>hRUG896</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7853253592471332</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>hRUG892</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6414595733734724</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.26883068641303</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG531</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>hRUG852</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.399942672274429</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.1142060376179038</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG635</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG764</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.8203973071987619</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.2214513692485535</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG145</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG724</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG613</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.3820114460710722</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>hRUG872</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.09450032028519206</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG300</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.1370339008860278</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG796</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.851665008468951</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG811</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG809</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG268</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8989583976535099</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG336</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.07199297264083737</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.3030778686920966</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2582968237196553</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>o__Cytophagales</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG115</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.2111117206196803</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>hRUG871</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG252</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.6670338110148157</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.1863391621280509</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG830</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9567610727614122</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.4047861392637635</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG656</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG822</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.8675835917808298</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG819</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5902313269746536</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RUG411</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1420930784965955</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.3961604699226506</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG006</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8251290073834007</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.1240740821509257</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG694</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9203195934446795</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG389</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.4901855985539249</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG671</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG824</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG094</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9329758670844975</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.08224446025798626</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG128</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.3830147071052001</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.2808503081675661</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RUG191</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG222</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG554</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.05214926269583409</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG611</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9364004895816337</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.1524281846198815</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG512</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7231483754298859</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.06515146799190841</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>hRUG868</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.09390554271502805</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG850</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9128599766918839</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG588</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.2101305827798997</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.2798946628891125</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>o__Cytophagales</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>hRUG877</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.6618093431643242</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.01055283576456956</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>RUG561</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9339132714967591</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>hRUG856</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5032773307207099</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.3910890542282764</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG484</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>hRUG869</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9226172615856956</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>hRUG859</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.2844888760162071</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.09520955727202585</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG681</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.6179125726480708</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.008487318919898734</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG847</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG743</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.743797096454619</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.09091109373698314</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.09483390572051775</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG655</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>hRUG851</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.4143528414436479</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG710</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.491688497178385</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.2846150521411678</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG433</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG687</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.2729588041264815</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.1011650532636602</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.1288615607676598</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.2722195951245153</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>hRUG904</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9678741471390593</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG458</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG508</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.1691742716674621</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.1386883166554661</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.3062065465168389</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG816</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.5007757743470183</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.6008589313202437</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG297</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.2248630418128694</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>hRUG884</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.5538433399722684</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.2461208759918306</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG709</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.6990919585659048</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.2384005902004122</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG335</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.3317667125865325</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.3584120394397409</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG534</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.3005064612934838</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.3817530722951498</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG692</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.3485768132241058</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG231</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.4882261329397382</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.1120514628279573</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG683</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9112896307824134</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG646</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.8613742125853781</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.5988100704286439</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG035</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.004612418768651927</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.8709632622676271</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG781</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5972384421073438</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.958572904041658</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>RUG308</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9546887020024035</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.1349482255656201</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG617</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>hRUG899</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9128035370665951</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG066</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.2857970242048859</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.534134650261389</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG842</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9009178896037665</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.02713271935434669</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG151</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.4083132904355121</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG055</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>hRUG886</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7419867216012228</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.2008330801075482</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG409</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5228319227776576</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.06237337252230313</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>RUG375</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.954889395018262</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG638</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9844200696113294</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.02419051157739005</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG211</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9947041590454668</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.1499333948873839</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG274</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.3177128294274401</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG477</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.3713712281906452</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.1798609228795927</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.1233008334921241</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>hRUG875</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.8558833149084847</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG391</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7746485309437405</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>hRUG870</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.0380504172442141</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>hRUG853</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.4690925382873299</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.6324203654857775</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG441</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>RUG304</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.8366678386073991</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>RUG254</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.1326994119053008</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>RUG227</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.5610382071293873</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>RUG584</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G132" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
